--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2066842.424134791</v>
+        <v>2064383.000155388</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>9.772948131658721</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.28738762568308</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.64648667473805</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.333083839987955</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>15.28738762568308</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>6.589085278990217</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,67 +1209,67 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>13.46513102070165</v>
       </c>
-      <c r="C9" t="n">
+      <c r="T9" t="n">
         <v>15.28738762568308</v>
       </c>
-      <c r="D9" t="n">
+      <c r="U9" t="n">
         <v>15.28738762568308</v>
       </c>
-      <c r="E9" t="n">
+      <c r="V9" t="n">
         <v>15.28738762568308</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1312,37 +1312,37 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.88867903583328</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15.28738762568308</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>13.46513102070165</v>
-      </c>
       <c r="R10" t="n">
+        <v>11.57645198486837</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>15.28738762568308</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>15.28738762568308</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>177.5799356986854</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,7 +1427,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>27.79102104342213</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514543</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020905</v>
+        <v>125.3869315776578</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1622,7 +1622,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>288.9253219423675</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>169.1274334845822</v>
+        <v>223.2287695811322</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T19" t="n">
         <v>172.5738126575766</v>
@@ -2084,16 +2084,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>171.0357654601039</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>223.2287695811336</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>247.6326277687279</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2482,16 +2482,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
         <v>49.37728379124554</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534533</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292586</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881757</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589019</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761691</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>156.5311943980521</v>
+        <v>253.2882401841249</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>21.05800467014625</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>66.23125412673328</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056128</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>290.6526114608037</v>
       </c>
       <c r="I32" t="n">
-        <v>37.62177684640919</v>
+        <v>37.62177684640923</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.9628172131034</v>
       </c>
       <c r="U32" t="n">
-        <v>247.0400190323852</v>
+        <v>247.0400190323853</v>
       </c>
       <c r="V32" t="n">
         <v>323.7971055436182</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>175.8768272554206</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>163.2916681721111</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>142.4788097200525</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>45.01321044996903</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>92.39726748332131</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.97699974353056</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>185.8138724049251</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>215.5937963496524</v>
+        <v>215.5937963496525</v>
       </c>
       <c r="U34" t="n">
         <v>282.2566852790961</v>
       </c>
       <c r="V34" t="n">
-        <v>248.1824903973112</v>
+        <v>248.1824903973113</v>
       </c>
       <c r="W34" t="n">
         <v>282.5678454100743</v>
@@ -3253,7 +3253,7 @@
         <v>221.7545024625204</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.629500425578</v>
+        <v>141.1835453597394</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958334</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.29048841619591</v>
+        <v>23.61029744176628</v>
       </c>
       <c r="C8" t="n">
-        <v>37.29048841619591</v>
+        <v>23.61029744176628</v>
       </c>
       <c r="D8" t="n">
-        <v>37.29048841619591</v>
+        <v>23.61029744176628</v>
       </c>
       <c r="E8" t="n">
-        <v>37.29048841619591</v>
+        <v>23.61029744176628</v>
       </c>
       <c r="F8" t="n">
-        <v>27.41882363674265</v>
+        <v>16.66479669256281</v>
       </c>
       <c r="G8" t="n">
-        <v>11.97701795423449</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="H8" t="n">
-        <v>11.97701795423449</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="I8" t="n">
-        <v>11.97701795423449</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="J8" t="n">
         <v>1.222991010054646</v>
       </c>
       <c r="K8" t="n">
-        <v>15.74600925445356</v>
+        <v>15.74600925445357</v>
       </c>
       <c r="L8" t="n">
-        <v>30.88052300387981</v>
+        <v>30.88052300387982</v>
       </c>
       <c r="M8" t="n">
-        <v>46.01503675330606</v>
+        <v>30.88052300387982</v>
       </c>
       <c r="N8" t="n">
-        <v>61.1495505027323</v>
+        <v>46.01503675330607</v>
       </c>
       <c r="O8" t="n">
-        <v>61.1495505027323</v>
+        <v>46.01503675330607</v>
       </c>
       <c r="P8" t="n">
-        <v>61.1495505027323</v>
+        <v>61.14955050273232</v>
       </c>
       <c r="Q8" t="n">
-        <v>52.73229409870407</v>
+        <v>61.14955050273232</v>
       </c>
       <c r="R8" t="n">
-        <v>37.29048841619591</v>
+        <v>45.70774482022416</v>
       </c>
       <c r="S8" t="n">
-        <v>37.29048841619591</v>
+        <v>45.70774482022416</v>
       </c>
       <c r="T8" t="n">
-        <v>37.29048841619591</v>
+        <v>30.265939137716</v>
       </c>
       <c r="U8" t="n">
-        <v>37.29048841619591</v>
+        <v>23.61029744176628</v>
       </c>
       <c r="V8" t="n">
-        <v>37.29048841619591</v>
+        <v>23.61029744176628</v>
       </c>
       <c r="W8" t="n">
-        <v>37.29048841619591</v>
+        <v>23.61029744176628</v>
       </c>
       <c r="X8" t="n">
-        <v>37.29048841619591</v>
+        <v>23.61029744176628</v>
       </c>
       <c r="Y8" t="n">
-        <v>37.29048841619591</v>
+        <v>23.61029744176628</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.54840805757912</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="C9" t="n">
-        <v>32.10660237507096</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="D9" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="E9" t="n">
         <v>1.222991010054646</v>
@@ -4881,52 +4881,52 @@
         <v>1.222991010054646</v>
       </c>
       <c r="J9" t="n">
+        <v>1.252046544590157</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.252046544590157</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16.38656029401641</v>
+      </c>
+      <c r="M9" t="n">
+        <v>31.52107404344265</v>
+      </c>
+      <c r="N9" t="n">
+        <v>46.6555877928689</v>
+      </c>
+      <c r="O9" t="n">
+        <v>46.6555877928689</v>
+      </c>
+      <c r="P9" t="n">
+        <v>61.14955050273232</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>61.14955050273232</v>
+      </c>
+      <c r="R9" t="n">
+        <v>61.14955050273232</v>
+      </c>
+      <c r="S9" t="n">
+        <v>47.54840805757913</v>
+      </c>
+      <c r="T9" t="n">
+        <v>32.10660237507097</v>
+      </c>
+      <c r="U9" t="n">
+        <v>16.66479669256281</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.222991010054646</v>
       </c>
-      <c r="K9" t="n">
+      <c r="W9" t="n">
         <v>1.222991010054646</v>
       </c>
-      <c r="L9" t="n">
-        <v>16.35750475948089</v>
-      </c>
-      <c r="M9" t="n">
-        <v>31.49201850890714</v>
-      </c>
-      <c r="N9" t="n">
-        <v>31.49201850890714</v>
-      </c>
-      <c r="O9" t="n">
-        <v>46.62653225833338</v>
-      </c>
-      <c r="P9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="R9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="S9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="T9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="U9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="V9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="W9" t="n">
-        <v>61.1495505027323</v>
-      </c>
       <c r="X9" t="n">
-        <v>61.1495505027323</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.1495505027323</v>
+        <v>1.222991010054646</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="C10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="D10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="E10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="F10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="G10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="H10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="I10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="J10" t="n">
         <v>1.222991010054646</v>
@@ -4966,46 +4966,46 @@
         <v>1.222991010054646</v>
       </c>
       <c r="L10" t="n">
-        <v>16.35750475948089</v>
+        <v>16.3575047594809</v>
       </c>
       <c r="M10" t="n">
-        <v>31.49201850890714</v>
+        <v>30.88052300387982</v>
       </c>
       <c r="N10" t="n">
-        <v>46.62653225833338</v>
+        <v>46.01503675330607</v>
       </c>
       <c r="O10" t="n">
-        <v>61.1495505027323</v>
+        <v>61.14955050273232</v>
       </c>
       <c r="P10" t="n">
-        <v>61.1495505027323</v>
+        <v>59.24179390088052</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.54840805757912</v>
+        <v>43.79998821837236</v>
       </c>
       <c r="R10" t="n">
-        <v>32.10660237507096</v>
+        <v>32.10660237507097</v>
       </c>
       <c r="S10" t="n">
-        <v>32.10660237507096</v>
+        <v>32.10660237507097</v>
       </c>
       <c r="T10" t="n">
-        <v>32.10660237507096</v>
+        <v>16.66479669256281</v>
       </c>
       <c r="U10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="V10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="W10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="X10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1772.653667421627</v>
+        <v>1517.112151453828</v>
       </c>
       <c r="C11" t="n">
-        <v>1451.140783429289</v>
+        <v>1517.112151453828</v>
       </c>
       <c r="D11" t="n">
-        <v>1140.324717770611</v>
+        <v>1206.296085795151</v>
       </c>
       <c r="E11" t="n">
-        <v>801.9860981204404</v>
+        <v>867.95746614498</v>
       </c>
       <c r="F11" t="n">
-        <v>438.449826278906</v>
+        <v>688.5837937220655</v>
       </c>
       <c r="G11" t="n">
-        <v>70.82700907197574</v>
+        <v>320.9609765151353</v>
       </c>
       <c r="H11" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="I11" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J11" t="n">
-        <v>427.1117890513542</v>
+        <v>259.7061400310012</v>
       </c>
       <c r="K11" t="n">
-        <v>760.9311627412008</v>
+        <v>593.5255137208477</v>
       </c>
       <c r="L11" t="n">
-        <v>1211.96537598961</v>
+        <v>1045.797625565775</v>
       </c>
       <c r="M11" t="n">
-        <v>1745.497280661534</v>
+        <v>1579.329530237699</v>
       </c>
       <c r="N11" t="n">
-        <v>2292.276097720317</v>
+        <v>2126.108347296481</v>
       </c>
       <c r="O11" t="n">
-        <v>2795.248568599653</v>
+        <v>2629.080818175818</v>
       </c>
       <c r="P11" t="n">
-        <v>3190.022934956832</v>
+        <v>3023.855184532997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3482.333387041984</v>
+        <v>3482.333387041985</v>
       </c>
       <c r="R11" t="n">
         <v>3541.350453598787</v>
       </c>
       <c r="S11" t="n">
-        <v>3478.509418073955</v>
+        <v>3478.509418073956</v>
       </c>
       <c r="T11" t="n">
-        <v>3319.98130340625</v>
+        <v>3319.981303406251</v>
       </c>
       <c r="U11" t="n">
         <v>3113.90045962816</v>
       </c>
       <c r="V11" t="n">
-        <v>3085.828721200462</v>
+        <v>2830.287205232663</v>
       </c>
       <c r="W11" t="n">
-        <v>2780.509698878421</v>
+        <v>2524.968182910622</v>
       </c>
       <c r="X11" t="n">
-        <v>2454.493573565414</v>
+        <v>2198.952057597616</v>
       </c>
       <c r="Y11" t="n">
-        <v>2111.803874537676</v>
+        <v>1856.262358569877</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>89.83430067043778</v>
       </c>
       <c r="I12" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J12" t="n">
         <v>164.5042785625931</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7811424450867</v>
+        <v>763.7811424450869</v>
       </c>
       <c r="C13" t="n">
         <v>642.2945924652531</v>
       </c>
       <c r="D13" t="n">
-        <v>539.6275860009906</v>
+        <v>539.6275860009907</v>
       </c>
       <c r="E13" t="n">
-        <v>439.1641253666708</v>
+        <v>439.1641253666709</v>
       </c>
       <c r="F13" t="n">
-        <v>339.7238108168336</v>
+        <v>339.7238108168339</v>
       </c>
       <c r="G13" t="n">
-        <v>219.4706071396258</v>
+        <v>219.4706071396261</v>
       </c>
       <c r="H13" t="n">
-        <v>120.703053305557</v>
+        <v>120.7030533055571</v>
       </c>
       <c r="I13" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J13" t="n">
         <v>162.4550267713179</v>
       </c>
       <c r="K13" t="n">
-        <v>412.9475949726011</v>
+        <v>412.9475949726008</v>
       </c>
       <c r="L13" t="n">
-        <v>776.0127786735038</v>
+        <v>776.0127786735034</v>
       </c>
       <c r="M13" t="n">
-        <v>1166.67520952546</v>
+        <v>1166.675209525459</v>
       </c>
       <c r="N13" t="n">
-        <v>1554.588971483731</v>
+        <v>1554.58897148373</v>
       </c>
       <c r="O13" t="n">
-        <v>1900.423955656551</v>
+        <v>1900.42395565655</v>
       </c>
       <c r="P13" t="n">
-        <v>2179.536841342617</v>
+        <v>2179.536841342616</v>
       </c>
       <c r="Q13" t="n">
         <v>2303.652522747538</v>
@@ -5242,7 +5242,7 @@
         <v>1071.32292052271</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.9799743272532</v>
+        <v>897.9799743272533</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1772.653667421627</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="C14" t="n">
-        <v>1451.140783429289</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="D14" t="n">
-        <v>1140.324717770611</v>
+        <v>1390.45868521377</v>
       </c>
       <c r="E14" t="n">
-        <v>801.9860981204404</v>
+        <v>1052.1200655636</v>
       </c>
       <c r="F14" t="n">
-        <v>438.449826278906</v>
+        <v>688.5837937220654</v>
       </c>
       <c r="G14" t="n">
-        <v>70.82700907197574</v>
+        <v>320.9609765151353</v>
       </c>
       <c r="H14" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="I14" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J14" t="n">
-        <v>406.0766237065719</v>
+        <v>259.7061400310012</v>
       </c>
       <c r="K14" t="n">
-        <v>739.8959973964184</v>
+        <v>593.5255137208477</v>
       </c>
       <c r="L14" t="n">
-        <v>1190.930210644827</v>
+        <v>1044.559726969257</v>
       </c>
       <c r="M14" t="n">
-        <v>1724.462115316752</v>
+        <v>1578.091631641181</v>
       </c>
       <c r="N14" t="n">
-        <v>2271.240932375534</v>
+        <v>2124.870448699964</v>
       </c>
       <c r="O14" t="n">
-        <v>2774.213403254871</v>
+        <v>2839.272658929124</v>
       </c>
       <c r="P14" t="n">
-        <v>3168.987769612049</v>
+        <v>3234.047025286302</v>
       </c>
       <c r="Q14" t="n">
-        <v>3417.274131367732</v>
+        <v>3482.333387041985</v>
       </c>
       <c r="R14" t="n">
         <v>3541.350453598787</v>
       </c>
       <c r="S14" t="n">
-        <v>3541.350453598787</v>
+        <v>3478.509418073956</v>
       </c>
       <c r="T14" t="n">
-        <v>3541.350453598787</v>
+        <v>3319.981303406251</v>
       </c>
       <c r="U14" t="n">
-        <v>3335.269609820697</v>
+        <v>3113.90045962816</v>
       </c>
       <c r="V14" t="n">
-        <v>3051.656355425199</v>
+        <v>2830.287205232663</v>
       </c>
       <c r="W14" t="n">
-        <v>2746.337333103159</v>
+        <v>2524.968182910622</v>
       </c>
       <c r="X14" t="n">
-        <v>2454.493573565414</v>
+        <v>2198.952057597616</v>
       </c>
       <c r="Y14" t="n">
-        <v>2111.803874537676</v>
+        <v>1856.262358569878</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>945.8587471209011</v>
+        <v>945.8587471209007</v>
       </c>
       <c r="C15" t="n">
-        <v>771.4057178397741</v>
+        <v>771.4057178397737</v>
       </c>
       <c r="D15" t="n">
-        <v>622.4713081785228</v>
+        <v>622.4713081785226</v>
       </c>
       <c r="E15" t="n">
-        <v>463.2338531730672</v>
+        <v>463.233853173067</v>
       </c>
       <c r="F15" t="n">
-        <v>316.6992951999522</v>
+        <v>316.6992951999521</v>
       </c>
       <c r="G15" t="n">
-        <v>180.3361950325703</v>
+        <v>180.3361950325706</v>
       </c>
       <c r="H15" t="n">
-        <v>89.83430067043778</v>
+        <v>89.8343006704381</v>
       </c>
       <c r="I15" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J15" t="n">
-        <v>164.5042785625931</v>
+        <v>164.504278562593</v>
       </c>
       <c r="K15" t="n">
         <v>402.7684775429402</v>
       </c>
       <c r="L15" t="n">
-        <v>769.4666378556055</v>
+        <v>769.4666378556057</v>
       </c>
       <c r="M15" t="n">
         <v>1216.742963077922</v>
@@ -5394,7 +5394,7 @@
         <v>1783.923239839657</v>
       </c>
       <c r="W15" t="n">
-        <v>1529.685883111456</v>
+        <v>1529.685883111455</v>
       </c>
       <c r="X15" t="n">
         <v>1321.834382905923</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7811424450865</v>
+        <v>763.7811424450863</v>
       </c>
       <c r="C16" t="n">
-        <v>642.2945924652529</v>
+        <v>642.2945924652527</v>
       </c>
       <c r="D16" t="n">
-        <v>539.6275860009904</v>
+        <v>539.6275860009903</v>
       </c>
       <c r="E16" t="n">
         <v>439.1641253666705</v>
       </c>
       <c r="F16" t="n">
-        <v>339.7238108168335</v>
+        <v>339.7238108168336</v>
       </c>
       <c r="G16" t="n">
-        <v>219.4706071396257</v>
+        <v>219.4706071396259</v>
       </c>
       <c r="H16" t="n">
-        <v>120.7030533055568</v>
+        <v>120.703053305557</v>
       </c>
       <c r="I16" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J16" t="n">
-        <v>162.4550267713179</v>
+        <v>162.4550267713178</v>
       </c>
       <c r="K16" t="n">
-        <v>412.9475949726009</v>
+        <v>412.9475949726007</v>
       </c>
       <c r="L16" t="n">
         <v>776.0127786735036</v>
@@ -5452,7 +5452,7 @@
         <v>1900.42395565655</v>
       </c>
       <c r="P16" t="n">
-        <v>2179.536841342616</v>
+        <v>2179.536841342617</v>
       </c>
       <c r="Q16" t="n">
         <v>2303.652522747538</v>
@@ -5473,13 +5473,13 @@
         <v>1493.830375561541</v>
       </c>
       <c r="W16" t="n">
-        <v>1251.862838472654</v>
+        <v>1251.862838472653</v>
       </c>
       <c r="X16" t="n">
-        <v>1071.32292052271</v>
+        <v>1071.322920522709</v>
       </c>
       <c r="Y16" t="n">
-        <v>897.979974327253</v>
+        <v>897.9799743272526</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1579.95318697866</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="C17" t="n">
-        <v>1258.440302986322</v>
+        <v>1195.599267461491</v>
       </c>
       <c r="D17" t="n">
-        <v>947.624237327645</v>
+        <v>884.7832018028134</v>
       </c>
       <c r="E17" t="n">
-        <v>609.285617677474</v>
+        <v>546.4445821526424</v>
       </c>
       <c r="F17" t="n">
-        <v>438.449826278906</v>
+        <v>320.9609765151353</v>
       </c>
       <c r="G17" t="n">
-        <v>70.82700907197574</v>
+        <v>320.9609765151353</v>
       </c>
       <c r="H17" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="I17" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J17" t="n">
         <v>427.1117890513542</v>
@@ -5519,46 +5519,46 @@
         <v>760.9311627412008</v>
       </c>
       <c r="L17" t="n">
-        <v>1211.96537598961</v>
+        <v>1255.98946631908</v>
       </c>
       <c r="M17" t="n">
-        <v>1745.497280661534</v>
+        <v>1789.521370991005</v>
       </c>
       <c r="N17" t="n">
-        <v>2292.276097720317</v>
+        <v>2336.300188049787</v>
       </c>
       <c r="O17" t="n">
-        <v>2795.248568599653</v>
+        <v>2839.272658929124</v>
       </c>
       <c r="P17" t="n">
-        <v>3190.022934956832</v>
+        <v>3234.047025286302</v>
       </c>
       <c r="Q17" t="n">
-        <v>3482.333387041984</v>
+        <v>3482.333387041985</v>
       </c>
       <c r="R17" t="n">
         <v>3541.350453598787</v>
       </c>
       <c r="S17" t="n">
-        <v>3541.350453598787</v>
+        <v>3478.509418073956</v>
       </c>
       <c r="T17" t="n">
-        <v>3382.822338931082</v>
+        <v>3319.981303406251</v>
       </c>
       <c r="U17" t="n">
-        <v>3176.741495152992</v>
+        <v>3113.900459628161</v>
       </c>
       <c r="V17" t="n">
-        <v>2893.128240757494</v>
+        <v>2830.287205232664</v>
       </c>
       <c r="W17" t="n">
-        <v>2587.809218435454</v>
+        <v>2524.968182910623</v>
       </c>
       <c r="X17" t="n">
-        <v>2261.793093122447</v>
+        <v>2198.952057597617</v>
       </c>
       <c r="Y17" t="n">
-        <v>1919.103394094709</v>
+        <v>1856.262358569878</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>89.83430067043778</v>
       </c>
       <c r="I18" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J18" t="n">
         <v>164.5042785625931</v>
@@ -5598,7 +5598,7 @@
         <v>402.7684775429402</v>
       </c>
       <c r="L18" t="n">
-        <v>769.4666378556057</v>
+        <v>769.4666378556055</v>
       </c>
       <c r="M18" t="n">
         <v>1216.742963077922</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7811424450869</v>
+        <v>763.7811424450866</v>
       </c>
       <c r="C19" t="n">
-        <v>642.2945924652532</v>
+        <v>642.294592465253</v>
       </c>
       <c r="D19" t="n">
-        <v>539.6275860009907</v>
+        <v>539.6275860009906</v>
       </c>
       <c r="E19" t="n">
-        <v>439.164125366671</v>
+        <v>439.1641253666708</v>
       </c>
       <c r="F19" t="n">
-        <v>339.723810816834</v>
+        <v>339.7238108168337</v>
       </c>
       <c r="G19" t="n">
-        <v>219.4706071396261</v>
+        <v>219.470607139626</v>
       </c>
       <c r="H19" t="n">
-        <v>120.7030533055572</v>
+        <v>120.7030533055571</v>
       </c>
       <c r="I19" t="n">
-        <v>70.82700907197574</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J19" t="n">
         <v>162.4550267713179</v>
@@ -5677,7 +5677,7 @@
         <v>412.9475949726009</v>
       </c>
       <c r="L19" t="n">
-        <v>776.0127786735036</v>
+        <v>776.0127786735038</v>
       </c>
       <c r="M19" t="n">
         <v>1166.675209525459</v>
@@ -5716,7 +5716,7 @@
         <v>1071.32292052271</v>
       </c>
       <c r="Y19" t="n">
-        <v>897.9799743272533</v>
+        <v>897.9799743272531</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1517.112151453831</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="C20" t="n">
-        <v>1195.599267461492</v>
+        <v>1195.599267461491</v>
       </c>
       <c r="D20" t="n">
-        <v>884.783201802815</v>
+        <v>1022.83586800684</v>
       </c>
       <c r="E20" t="n">
-        <v>546.444582152644</v>
+        <v>684.4972483566695</v>
       </c>
       <c r="F20" t="n">
-        <v>546.444582152644</v>
+        <v>320.9609765151353</v>
       </c>
       <c r="G20" t="n">
         <v>320.9609765151353</v>
       </c>
       <c r="H20" t="n">
-        <v>70.82700907197578</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="I20" t="n">
-        <v>70.82700907197578</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J20" t="n">
-        <v>406.0766237065741</v>
+        <v>259.7061400310012</v>
       </c>
       <c r="K20" t="n">
-        <v>739.8959973964206</v>
+        <v>593.5255137208477</v>
       </c>
       <c r="L20" t="n">
-        <v>1190.930210644829</v>
+        <v>1044.559726969257</v>
       </c>
       <c r="M20" t="n">
-        <v>1724.462115316754</v>
+        <v>1578.091631641181</v>
       </c>
       <c r="N20" t="n">
-        <v>2271.240932375536</v>
+        <v>2124.870448699964</v>
       </c>
       <c r="O20" t="n">
-        <v>2774.213403254873</v>
+        <v>2839.272658929124</v>
       </c>
       <c r="P20" t="n">
-        <v>3168.987769612052</v>
+        <v>3234.047025286302</v>
       </c>
       <c r="Q20" t="n">
-        <v>3417.274131367734</v>
+        <v>3482.333387041985</v>
       </c>
       <c r="R20" t="n">
-        <v>3541.350453598789</v>
+        <v>3541.350453598787</v>
       </c>
       <c r="S20" t="n">
-        <v>3478.509418073957</v>
+        <v>3478.509418073956</v>
       </c>
       <c r="T20" t="n">
-        <v>3319.981303406253</v>
+        <v>3319.981303406251</v>
       </c>
       <c r="U20" t="n">
-        <v>3113.900459628162</v>
+        <v>3113.900459628161</v>
       </c>
       <c r="V20" t="n">
-        <v>2830.287205232665</v>
+        <v>2830.287205232664</v>
       </c>
       <c r="W20" t="n">
-        <v>2524.968182910624</v>
+        <v>2524.968182910623</v>
       </c>
       <c r="X20" t="n">
-        <v>2198.952057597618</v>
+        <v>2198.952057597616</v>
       </c>
       <c r="Y20" t="n">
-        <v>1856.262358569879</v>
+        <v>1856.262358569878</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>180.3361950325703</v>
       </c>
       <c r="H21" t="n">
-        <v>89.83430067043781</v>
+        <v>89.83430067043778</v>
       </c>
       <c r="I21" t="n">
-        <v>70.82700907197578</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J21" t="n">
         <v>164.5042785625931</v>
       </c>
       <c r="K21" t="n">
-        <v>402.7684775429403</v>
+        <v>402.7684775429402</v>
       </c>
       <c r="L21" t="n">
-        <v>769.4666378556057</v>
+        <v>769.4666378556055</v>
       </c>
       <c r="M21" t="n">
         <v>1216.742963077922</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7811424450867</v>
+        <v>763.7811424450866</v>
       </c>
       <c r="C22" t="n">
-        <v>642.2945924652531</v>
+        <v>642.294592465253</v>
       </c>
       <c r="D22" t="n">
-        <v>539.6275860009907</v>
+        <v>539.6275860009906</v>
       </c>
       <c r="E22" t="n">
-        <v>439.1641253666709</v>
+        <v>439.1641253666708</v>
       </c>
       <c r="F22" t="n">
-        <v>339.7238108168339</v>
+        <v>339.7238108168337</v>
       </c>
       <c r="G22" t="n">
-        <v>219.4706071396261</v>
+        <v>219.470607139626</v>
       </c>
       <c r="H22" t="n">
         <v>120.7030533055571</v>
       </c>
       <c r="I22" t="n">
-        <v>70.82700907197578</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="J22" t="n">
-        <v>162.455026771318</v>
+        <v>162.4550267713179</v>
       </c>
       <c r="K22" t="n">
-        <v>412.9475949726008</v>
+        <v>412.9475949726005</v>
       </c>
       <c r="L22" t="n">
-        <v>776.0127786735036</v>
+        <v>776.0127786735034</v>
       </c>
       <c r="M22" t="n">
         <v>1166.675209525459</v>
@@ -5966,31 +5966,31 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760677</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>771.2510705659143</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L23" t="n">
         <v>1222.285283814323</v>
@@ -5999,19 +5999,19 @@
         <v>1755.817188486248</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.59600554503</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.568476424368</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P23" t="n">
-        <v>3518.923563871314</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309627</v>
@@ -6023,16 +6023,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X23" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D24" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F24" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749765</v>
@@ -6212,64 +6212,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551629</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422546</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>2996.062531649192</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3499.035002528529</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>391.8948606428723</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8948606428723</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953301</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442067</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927029</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104705</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1384.778648927267</v>
+        <v>1197.213802001892</v>
       </c>
       <c r="V28" t="n">
-        <v>1130.09416072138</v>
+        <v>942.529313796005</v>
       </c>
       <c r="W28" t="n">
-        <v>840.6769906844198</v>
+        <v>653.1121437590444</v>
       </c>
       <c r="X28" t="n">
-        <v>612.6874397864025</v>
+        <v>425.1225928610272</v>
       </c>
       <c r="Y28" t="n">
-        <v>391.8948606428723</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
         <v>850.2139837551626</v>
@@ -6458,7 +6458,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6467,46 +6467,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1664.03236021809</v>
       </c>
       <c r="M29" t="n">
-        <v>2536.15366264131</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N29" t="n">
-        <v>3082.932479700092</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O29" t="n">
-        <v>3962.897130029547</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432983</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>749.804591984087</v>
+        <v>460.4910241367934</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8684090561801</v>
+        <v>460.4910241367935</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7517696438442</v>
+        <v>310.3743847244577</v>
       </c>
       <c r="E31" t="n">
-        <v>430.7517696438442</v>
+        <v>162.4612911420644</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>162.4612911420644</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>162.4612911420644</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6625,10 +6625,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.657581931531</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>931.4530568143266</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X31" t="n">
-        <v>931.4530568143266</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y31" t="n">
-        <v>931.4530568143267</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.027637916871</v>
+        <v>2345.027637916872</v>
       </c>
       <c r="C32" t="n">
-        <v>1980.060224942638</v>
+        <v>1980.060224942639</v>
       </c>
       <c r="D32" t="n">
-        <v>1625.789630302066</v>
+        <v>1625.789630302067</v>
       </c>
       <c r="E32" t="n">
         <v>1243.996481670001</v>
@@ -6689,40 +6689,40 @@
         <v>837.0056808465715</v>
       </c>
       <c r="G32" t="n">
-        <v>425.9283346577467</v>
+        <v>425.9283346577469</v>
       </c>
       <c r="H32" t="n">
         <v>132.3398382326925</v>
       </c>
       <c r="I32" t="n">
-        <v>94.33804343833975</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="J32" t="n">
-        <v>283.2171743973652</v>
+        <v>450.6228234177182</v>
       </c>
       <c r="K32" t="n">
-        <v>623.9712599839052</v>
+        <v>883.2452973532927</v>
       </c>
       <c r="L32" t="n">
-        <v>1488.49007563726</v>
+        <v>1334.279510601702</v>
       </c>
       <c r="M32" t="n">
-        <v>2467.040378467088</v>
+        <v>2312.82981343153</v>
       </c>
       <c r="N32" t="n">
-        <v>3446.792650693735</v>
+        <v>2859.608630490312</v>
       </c>
       <c r="O32" t="n">
-        <v>3949.765121573072</v>
+        <v>3739.573280819767</v>
       </c>
       <c r="P32" t="n">
-        <v>4344.53948793025</v>
+        <v>4134.347647176945</v>
       </c>
       <c r="Q32" t="n">
         <v>4592.825849685933</v>
       </c>
       <c r="R32" t="n">
-        <v>4716.902171916988</v>
+        <v>4716.902171916989</v>
       </c>
       <c r="S32" t="n">
         <v>4610.606607410262</v>
@@ -6731,13 +6731,13 @@
         <v>4408.623963760662</v>
       </c>
       <c r="U32" t="n">
-        <v>4159.088591000676</v>
+        <v>4159.088591000677</v>
       </c>
       <c r="V32" t="n">
-        <v>3832.020807623284</v>
+        <v>3832.020807623285</v>
       </c>
       <c r="W32" t="n">
-        <v>3483.247256319349</v>
+        <v>3483.24725631935</v>
       </c>
       <c r="X32" t="n">
         <v>3113.776602024448</v>
@@ -6774,7 +6774,7 @@
         <v>113.3453350368018</v>
       </c>
       <c r="I33" t="n">
-        <v>94.33804343833975</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="J33" t="n">
         <v>188.0153129289571</v>
@@ -6786,7 +6786,7 @@
         <v>792.9776722219697</v>
       </c>
       <c r="M33" t="n">
-        <v>1240.253997444286</v>
+        <v>1240.253997444285</v>
       </c>
       <c r="N33" t="n">
         <v>1713.77704099874</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>233.136505997219</v>
+        <v>403.1971120162827</v>
       </c>
       <c r="C34" t="n">
-        <v>233.136505997219</v>
+        <v>238.2560330545544</v>
       </c>
       <c r="D34" t="n">
-        <v>233.136505997219</v>
+        <v>238.2560330545544</v>
       </c>
       <c r="E34" t="n">
-        <v>233.136505997219</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="F34" t="n">
-        <v>233.136505997219</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="G34" t="n">
-        <v>233.136505997219</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="H34" t="n">
-        <v>187.6686166538158</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="I34" t="n">
-        <v>94.33804343833975</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="J34" t="n">
         <v>143.3762772825269</v>
@@ -6862,7 +6862,7 @@
         <v>351.2790616286549</v>
       </c>
       <c r="L34" t="n">
-        <v>671.7544614744027</v>
+        <v>671.7544614744025</v>
       </c>
       <c r="M34" t="n">
         <v>1019.827108471203</v>
@@ -6877,31 +6877,31 @@
         <v>1904.919388722895</v>
       </c>
       <c r="Q34" t="n">
-        <v>1986.445286272662</v>
+        <v>1986.445286272661</v>
       </c>
       <c r="R34" t="n">
-        <v>1900.609932996368</v>
+        <v>1986.445286272661</v>
       </c>
       <c r="S34" t="n">
-        <v>1712.919152789373</v>
+        <v>1986.445286272661</v>
       </c>
       <c r="T34" t="n">
-        <v>1495.147641325078</v>
+        <v>1768.673774808366</v>
       </c>
       <c r="U34" t="n">
-        <v>1210.0398784169</v>
+        <v>1483.566011900188</v>
       </c>
       <c r="V34" t="n">
-        <v>959.3504941771914</v>
+        <v>1232.87662766048</v>
       </c>
       <c r="W34" t="n">
-        <v>673.9284281064093</v>
+        <v>947.4545615896976</v>
       </c>
       <c r="X34" t="n">
-        <v>449.9339811745706</v>
+        <v>723.4601146578584</v>
       </c>
       <c r="Y34" t="n">
-        <v>233.136505997219</v>
+        <v>580.8504728803439</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
@@ -6941,13 +6941,13 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1339.011402386886</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1872.543307058811</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285458</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
         <v>3355.268050164795</v>
@@ -6956,31 +6956,31 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7020,7 +7020,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7126,19 +7126,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557146</v>
@@ -7178,46 +7178,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.87963479397</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M38" t="n">
-        <v>2033.429937623799</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285458</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873066</v>
@@ -7327,7 +7327,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
         <v>1400.778593038485</v>
@@ -7397,43 +7397,43 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2456.09431497013</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O41" t="n">
-        <v>3336.058965299585</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P41" t="n">
-        <v>3730.833331656763</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3979.119693412445</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
@@ -7448,13 +7448,13 @@
         <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7485,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
         <v>413.0883853676538</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>390.9762157434844</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>1045.699547878784</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1496.733761127193</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>2030.265665799117</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2577.0444828579</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.016953737237</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309627</v>
@@ -7679,16 +7679,16 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,13 +7722,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
         <v>779.7865456803191</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8070029429868</v>
+        <v>232.8070029429872</v>
       </c>
       <c r="L8" t="n">
-        <v>248.6314749159779</v>
+        <v>248.6314749159785</v>
       </c>
       <c r="M8" t="n">
-        <v>242.9383145767219</v>
+        <v>227.6509269510395</v>
       </c>
       <c r="N8" t="n">
-        <v>241.9615320726346</v>
+        <v>241.9615320726353</v>
       </c>
       <c r="O8" t="n">
-        <v>227.5119277352855</v>
+        <v>227.5119277352861</v>
       </c>
       <c r="P8" t="n">
-        <v>229.0256624647139</v>
+        <v>244.3130500903975</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0616863156253</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>136.5152333244685</v>
+        <v>136.5152333244688</v>
       </c>
       <c r="L9" t="n">
-        <v>152.058520245337</v>
+        <v>152.0585202453375</v>
       </c>
       <c r="M9" t="n">
-        <v>155.3404562220591</v>
+        <v>155.3404562220596</v>
       </c>
       <c r="N9" t="n">
-        <v>129.2056697976269</v>
+        <v>144.4930574233104</v>
       </c>
       <c r="O9" t="n">
-        <v>155.9295706884395</v>
+        <v>140.6421830627569</v>
       </c>
       <c r="P9" t="n">
-        <v>147.0758162808139</v>
+        <v>147.0464672560309</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9334027023017</v>
+        <v>138.9334027023019</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>149.148387957589</v>
+        <v>149.1483879575893</v>
       </c>
       <c r="M10" t="n">
-        <v>153.1338488146763</v>
+        <v>152.5161765873762</v>
       </c>
       <c r="N10" t="n">
-        <v>141.9192732150993</v>
+        <v>141.9192732150995</v>
       </c>
       <c r="O10" t="n">
-        <v>152.1530293387776</v>
+        <v>152.7707015660781</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.250402622745412</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.46877811057598</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.8489734096674</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>213.5653932826501</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>44.46877811057647</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.46877811057598</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>147.8489734096696</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>213.5653932826501</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>233.4533865158194</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>167.7369666428345</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,16 +9884,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>304.7351805999692</v>
+        <v>80.35488666587537</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>107.5040408147564</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>48.5025677234924</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>7.004759491609605</v>
+        <v>99.80111135932123</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>287.0017854473904</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>287.0017854473911</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>287.0017854473913</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>274.8351763665426</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>21.74982042514819</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>19.40311602546662</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>122.171886755323</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9710754359426</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>182.3209734244335</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>252.9861008081203</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.186961971048731e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>182.3209734244326</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958331</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>33.83064211750898</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>190.7734756385368</v>
+        <v>136.6721395419867</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>136.6721395419865</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>140.7178194537273</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590281</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983799</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>129.6806438075606</v>
+        <v>32.92359802148798</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>124.363043352785</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>78.52376078758751</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.9321526700473</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.8768272554205</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>163.2916681721111</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>144.6603200916956</v>
       </c>
       <c r="E34" t="n">
-        <v>142.4788097200524</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>141.4658950964145</v>
       </c>
       <c r="G34" t="n">
-        <v>162.0706553325114</v>
+        <v>162.0706553325115</v>
       </c>
       <c r="H34" t="n">
-        <v>95.78665153783498</v>
+        <v>140.7998619878041</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>92.39726748332136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.97699974353061</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.8138724049252</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>73.44595506583867</v>
       </c>
     </row>
     <row r="35">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>898771.6195655972</v>
+        <v>898771.6195655973</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795681.6664365936</v>
+        <v>795681.6664365935</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795681.6664365935</v>
+        <v>795681.6664365936</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>795681.6664365937</v>
+        <v>795681.6664365936</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849761.3404311382</v>
+        <v>849761.3404311383</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842759.1932645936</v>
+        <v>842759.193264594</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849761.3404311382</v>
+        <v>849761.3404311383</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849761.3404311382</v>
+        <v>849761.3404311383</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849761.3404311382</v>
+        <v>849761.3404311383</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>614457.2540377789</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>585894.3893021748</v>
+        <v>585894.3893021747</v>
       </c>
       <c r="F2" t="n">
-        <v>585894.3893021747</v>
+        <v>585894.3893021749</v>
       </c>
       <c r="G2" t="n">
-        <v>585894.3893021748</v>
+        <v>585894.389302175</v>
       </c>
       <c r="H2" t="n">
         <v>585894.3893021748</v>
       </c>
       <c r="I2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.327398213</v>
       </c>
       <c r="J2" t="n">
-        <v>595622.6803304752</v>
+        <v>595622.6803304749</v>
       </c>
       <c r="K2" t="n">
         <v>595622.6803304749</v>
       </c>
       <c r="L2" t="n">
-        <v>597319.9725085041</v>
+        <v>597319.9725085042</v>
       </c>
       <c r="M2" t="n">
         <v>615781.3273982129</v>
       </c>
       <c r="N2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="O2" t="n">
         <v>615781.3273982129</v>
-      </c>
-      <c r="O2" t="n">
-        <v>615781.3273982127</v>
       </c>
       <c r="P2" t="n">
         <v>615781.327398213</v>
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8018.753949165228</v>
+        <v>8018.753949164473</v>
       </c>
       <c r="E3" t="n">
-        <v>1169820.214567983</v>
+        <v>1169820.214567984</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8.607424795590472e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34303.50260819506</v>
+        <v>34303.50260819524</v>
       </c>
       <c r="J3" t="n">
-        <v>47142.09215872965</v>
+        <v>47142.0921587296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3164.122341213404</v>
+        <v>3164.122341213381</v>
       </c>
       <c r="M3" t="n">
-        <v>210144.9646838792</v>
+        <v>210144.9646838794</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>420147.7688895313</v>
       </c>
       <c r="D4" t="n">
-        <v>418376.5748366918</v>
+        <v>418376.574836692</v>
       </c>
       <c r="E4" t="n">
-        <v>62361.15708337416</v>
+        <v>62361.15708337419</v>
       </c>
       <c r="F4" t="n">
-        <v>62361.15708337416</v>
+        <v>62361.15708337419</v>
       </c>
       <c r="G4" t="n">
-        <v>62361.15708337417</v>
+        <v>62361.15708337419</v>
       </c>
       <c r="H4" t="n">
-        <v>62361.15708337423</v>
+        <v>62361.15708337418</v>
       </c>
       <c r="I4" t="n">
-        <v>76652.56781120095</v>
+        <v>76652.56781120104</v>
       </c>
       <c r="J4" t="n">
-        <v>49388.53342030742</v>
+        <v>49388.53342030739</v>
       </c>
       <c r="K4" t="n">
-        <v>49388.53342030736</v>
+        <v>49388.53342030739</v>
       </c>
       <c r="L4" t="n">
-        <v>51691.75066197902</v>
+        <v>51691.75066197901</v>
       </c>
       <c r="M4" t="n">
-        <v>76652.56781120099</v>
+        <v>76652.56781120104</v>
       </c>
       <c r="N4" t="n">
         <v>76652.56781120101</v>
       </c>
       <c r="O4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120102</v>
       </c>
       <c r="P4" t="n">
         <v>76652.56781120101</v>
@@ -26473,31 +26473,31 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34640.31178066722</v>
+        <v>34640.3117806672</v>
       </c>
       <c r="E5" t="n">
-        <v>81534.81172802391</v>
+        <v>81534.81172802392</v>
       </c>
       <c r="F5" t="n">
-        <v>81534.81172802391</v>
+        <v>81534.81172802392</v>
       </c>
       <c r="G5" t="n">
         <v>81534.81172802392</v>
       </c>
       <c r="H5" t="n">
-        <v>81534.81172802395</v>
+        <v>81534.81172802392</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>95786.55083745145</v>
+        <v>95786.55083745146</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26506,7 +26506,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160681.8851482477</v>
+        <v>160677.4715703796</v>
       </c>
       <c r="C6" t="n">
-        <v>160681.8851482474</v>
+        <v>160677.4715703794</v>
       </c>
       <c r="D6" t="n">
-        <v>154745.6868316877</v>
+        <v>154745.6868316885</v>
       </c>
       <c r="E6" t="n">
-        <v>-727821.7940772066</v>
+        <v>-727921.4172041942</v>
       </c>
       <c r="F6" t="n">
-        <v>441998.4204907766</v>
+        <v>441898.79736379</v>
       </c>
       <c r="G6" t="n">
-        <v>441998.4204907767</v>
+        <v>441898.7973637901</v>
       </c>
       <c r="H6" t="n">
-        <v>441998.4204907765</v>
+        <v>441898.7973637899</v>
       </c>
       <c r="I6" t="n">
-        <v>415447.3153040103</v>
+        <v>415447.3153040105</v>
       </c>
       <c r="J6" t="n">
-        <v>402708.5364977245</v>
+        <v>402641.3410074984</v>
       </c>
       <c r="K6" t="n">
-        <v>449850.6286564539</v>
+        <v>449783.4331662279</v>
       </c>
       <c r="L6" t="n">
-        <v>446677.5486678601</v>
+        <v>446616.010818228</v>
       </c>
       <c r="M6" t="n">
-        <v>239605.8532283265</v>
+        <v>239605.8532283263</v>
       </c>
       <c r="N6" t="n">
+        <v>449750.8179122056</v>
+      </c>
+      <c r="O6" t="n">
         <v>449750.8179122058</v>
-      </c>
-      <c r="O6" t="n">
-        <v>449750.8179122056</v>
       </c>
       <c r="P6" t="n">
         <v>449750.8179122059</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.818285001178513</v>
+        <v>3.818285001177629</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>15.28738762568308</v>
       </c>
       <c r="E4" t="n">
-        <v>885.3376133996967</v>
+        <v>885.3376133996968</v>
       </c>
       <c r="F4" t="n">
-        <v>885.3376133996967</v>
+        <v>885.3376133996968</v>
       </c>
       <c r="G4" t="n">
-        <v>885.3376133996967</v>
+        <v>885.3376133996968</v>
       </c>
       <c r="H4" t="n">
-        <v>885.3376133996973</v>
+        <v>885.3376133996968</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26820,7 +26820,7 @@
         <v>1179.225542979247</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.713207767461424e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.955152926516754</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="M2" t="n">
-        <v>43.0199836920758</v>
+        <v>43.01998369207585</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.818285001178513</v>
+        <v>3.818285001177629</v>
       </c>
       <c r="E3" t="n">
-        <v>1085.95841559212</v>
+        <v>1085.958415592121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.190191874841266e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>128.9988478089172</v>
+        <v>128.9988478089178</v>
       </c>
       <c r="J4" t="n">
         <v>180.1764693963156</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>705.1611440033811</v>
+        <v>705.1611440033818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.713207767461424e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3.190191874841266e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>397.1030976100527</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.3176000604171</v>
       </c>
       <c r="I8" t="n">
-        <v>209.8841129573087</v>
+        <v>209.8841129573088</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.64648667473835</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,19 +27895,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8.333083839988339</v>
       </c>
       <c r="R8" t="n">
-        <v>133.617507822179</v>
+        <v>133.6175078221793</v>
       </c>
       <c r="S8" t="n">
-        <v>208.6702839803585</v>
+        <v>208.6702839803586</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0286554230553</v>
+        <v>207.7412677973723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3444249166803</v>
+        <v>244.7553396376901</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.0680526291657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>157.4211113626327</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1576779389557</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3576928297179</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27950,7 @@
         <v>112.1561247688305</v>
       </c>
       <c r="I9" t="n">
-        <v>89.11386363198818</v>
+        <v>89.11386363198824</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.64791299720272</v>
+        <v>99.64791299720285</v>
       </c>
       <c r="S9" t="n">
-        <v>171.5306198115738</v>
+        <v>158.0654887908721</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1316248842925</v>
+        <v>184.8442372586095</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9408417576256</v>
+        <v>210.6534541319425</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>217.5131995237422</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28032,10 +28032,10 @@
         <v>155.2434112094895</v>
       </c>
       <c r="J10" t="n">
-        <v>77.58499245075748</v>
+        <v>92.87238007644066</v>
       </c>
       <c r="K10" t="n">
-        <v>21.46952982071791</v>
+        <v>21.4695298207181</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,19 +28050,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.888679035833087</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>72.12035119581478</v>
+        <v>70.29809459083349</v>
       </c>
       <c r="R10" t="n">
-        <v>161.6964096922105</v>
+        <v>165.4073453330253</v>
       </c>
       <c r="S10" t="n">
         <v>223.8966037361975</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9161698553216</v>
+        <v>212.6287822296385</v>
       </c>
       <c r="U10" t="n">
         <v>271.0312661617913</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859207</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.555378710501825e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="C32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="D32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="E32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="F32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="G32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="H32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="I32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="T32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="U32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="V32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="W32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="X32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="C34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="D34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="E34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="F34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="G34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="H34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="I34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="J34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="K34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="L34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="M34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="N34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="O34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="P34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="R34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="S34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="T34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="U34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="V34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="W34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="X34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.955152926516762</v>
+        <v>3.955152926516726</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859369</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01534988945197391</v>
+        <v>0.01534988945197036</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1572020553500278</v>
+        <v>0.1572020553499915</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5917766130972247</v>
+        <v>0.5917766130970877</v>
       </c>
       <c r="J8" t="n">
-        <v>1.302802679874472</v>
+        <v>1.30280267987417</v>
       </c>
       <c r="K8" t="n">
-        <v>1.952563500376528</v>
+        <v>1.952563500376076</v>
       </c>
       <c r="L8" t="n">
-        <v>2.422327679692375</v>
+        <v>2.422327679691814</v>
       </c>
       <c r="M8" t="n">
-        <v>2.695306276233916</v>
+        <v>2.695306276233292</v>
       </c>
       <c r="N8" t="n">
-        <v>2.738919149639337</v>
+        <v>2.738919149638703</v>
       </c>
       <c r="O8" t="n">
-        <v>2.586283686401271</v>
+        <v>2.586283686400672</v>
       </c>
       <c r="P8" t="n">
-        <v>2.207333290555665</v>
+        <v>2.207333290555154</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.657615374556849</v>
+        <v>1.657615374556465</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9642224932875569</v>
+        <v>0.9642224932873338</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3497856058868558</v>
+        <v>0.3497856058867748</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06719414107601582</v>
+        <v>0.06719414107600027</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001227991156157912</v>
+        <v>0.001227991156157628</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008212914908195292</v>
+        <v>0.00821291490819339</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07931946766599138</v>
+        <v>0.07931946766597303</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2827692194268994</v>
+        <v>0.2827692194268339</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7759403510413807</v>
+        <v>0.7759403510412012</v>
       </c>
       <c r="K9" t="n">
-        <v>1.326205649890465</v>
+        <v>1.326205649890158</v>
       </c>
       <c r="L9" t="n">
-        <v>1.78324716022021</v>
+        <v>1.783247160219798</v>
       </c>
       <c r="M9" t="n">
-        <v>2.080965325642289</v>
+        <v>2.080965325641808</v>
       </c>
       <c r="N9" t="n">
-        <v>2.136042285706459</v>
+        <v>2.136042285705964</v>
       </c>
       <c r="O9" t="n">
-        <v>1.954061381688026</v>
+        <v>1.954061381687574</v>
       </c>
       <c r="P9" t="n">
-        <v>1.568306531899152</v>
+        <v>1.568306531898789</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.048371383719806</v>
+        <v>1.048371383719563</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5099211554404062</v>
+        <v>0.5099211554402882</v>
       </c>
       <c r="S9" t="n">
-        <v>0.152551292264066</v>
+        <v>0.1525512922640306</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0331038105290854</v>
+        <v>0.03310381052907774</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0005403233492233747</v>
+        <v>0.0005403233492232496</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006885431969338301</v>
+        <v>0.006885431969336707</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06121774969102603</v>
+        <v>0.06121774969101186</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2070637177688282</v>
+        <v>0.2070637177687803</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4868000402322178</v>
+        <v>0.4868000402321052</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7999620051649406</v>
+        <v>0.7999620051647555</v>
       </c>
       <c r="L10" t="n">
-        <v>1.023675949332351</v>
+        <v>1.023675949332114</v>
       </c>
       <c r="M10" t="n">
-        <v>1.079322758611821</v>
+        <v>1.079322758611571</v>
       </c>
       <c r="N10" t="n">
-        <v>1.053658875817016</v>
+        <v>1.053658875816772</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9732245114479268</v>
+        <v>0.9732245114477015</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8327616992734247</v>
+        <v>0.832761699273232</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5765610351779554</v>
+        <v>0.576561035177822</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3095940592758839</v>
+        <v>0.3095940592758122</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1199943007747411</v>
+        <v>0.1199943007747133</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0294195729599</v>
+        <v>0.0294195729598932</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0003755690165093623</v>
+        <v>0.0003755690165092754</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837925</v>
@@ -32087,7 +32087,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32318,13 +32318,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,13 +33740,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35179,7 +35179,7 @@
         <v>15.28738762568308</v>
       </c>
       <c r="M8" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>15.28738762568308</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.02934902478334445</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>15.28738762568308</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="O9" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>14.66971539838275</v>
+        <v>14.64036637359941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>15.28738762568308</v>
       </c>
       <c r="M10" t="n">
-        <v>15.28738762568308</v>
+        <v>14.66971539838275</v>
       </c>
       <c r="N10" t="n">
         <v>15.28738762568308</v>
       </c>
       <c r="O10" t="n">
-        <v>14.66971539838275</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>456.8405170150776</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35428,7 +35428,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>295.2630829142955</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35495,7 +35495,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004592</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>338.63597437838</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35659,7 +35659,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>721.6183941708692</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35820,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35887,7 +35887,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>500.0588925029086</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35902,7 +35902,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>295.2630829142955</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35966,13 +35966,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36048,10 +36048,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120759</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>338.6359743783822</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>721.6183941708692</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629117</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36288,7 +36288,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>785.7552219287309</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>418.5312714465541</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36528,13 +36528,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36604,16 +36604,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>703.497166819341</v>
+        <v>479.1168728852472</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306632</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
         <v>78.39423853789366</v>
@@ -36835,7 +36835,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>563.0941552070885</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,10 +36844,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>447.2645539428643</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306626</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37005,7 +37005,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
         <v>78.39423853789366</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>344.1960460470101</v>
+        <v>436.9923979147217</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.53356953958298</v>
+        <v>49.53356953958295</v>
       </c>
       <c r="K34" t="n">
         <v>210.0028124708363</v>
       </c>
       <c r="L34" t="n">
-        <v>323.7125250967149</v>
+        <v>323.7125250967148</v>
       </c>
       <c r="M34" t="n">
         <v>351.5885323200006</v>
       </c>
       <c r="N34" t="n">
-        <v>348.8120990940569</v>
+        <v>348.8120990940568</v>
       </c>
       <c r="O34" t="n">
         <v>306.3082831491565</v>
@@ -37245,7 +37245,7 @@
         <v>238.9122240716272</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.34939146441042</v>
+        <v>82.34939146441039</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>742.5918998397226</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,7 +37318,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356102</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37388,13 +37388,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37546,13 +37546,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397235</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>827.137011779454</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597722</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37713,7 +37713,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37789,19 +37789,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>574.0516558380597</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>79.0163145676914</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412335</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>312.9588877240356</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>793.2729108488541</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597722</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
